--- a/data_annotation/output_to_annonate/file_4_mairi.xlsx
+++ b/data_annotation/output_to_annonate/file_4_mairi.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>We booked the sunset fishing trip with Anthi. We met up about 3.30pm in Vilhada. We set out and the crew pulled up 17 'lobster pots' where we found about 2-3KG of shrimps and a fearless octopus, the crew then pulled up 600m of nets and found about 5 kg of fish. We cruised on to…</t>
+          <t xml:space="preserve">Had a fantastic afternoon on the water with captain Dimitris. Toured breathtaking islands near Skiathos, private beaches, to a special spot he knew about for urchins and fouscas (type of oyster) where he proceeded to dive, bring on deck and prepare a feast. HIGHLY recommend! He was professional and easy going the entire journey and had everything to make the trip special including music, cold beer and a fresh fruit platter he made up on the spot. Will remember always  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazing trip....</t>
+          <t xml:space="preserve">Blissful afternoon !! </t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -485,12 +485,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Our morning/afternoon out with Captain Nikolas and Artemis is the best memory of our Mykonos trip this summer. They were gracious, generous, and so very kind from the moment we stepped on to their boat.   It was truly a local and traditional experience. It was such a pleasure to be aboard with these amazing gentlemen. Artemis is full of stories and knowledge of the island. Nikolas is a lovely host, offering us coffee first thing in the morning, and a cooler full of beers, sodas, and waters throughout the day.   Artemis showed us how to pull the net in, and so we did! We had plenty of fish which Artemis then cleaned, and Nikolas fried up! We had a super fresh lunch of fish, Greek salad, and rusk. We were stuffed and everything was delicious. Nikolas even rolled me a couple of his cigarettes.  While they cleaned and cooked, we were anchored and allowed to swim, but decided to stay aboard as that was pleasant enough. I can’t stress enough how comfortable we felt with these two lovely individuals. I would highly recommend for a fun, insightful experience you won’t ever forget. I know we’ll always cherish the day we spent with Nikolas and Artemis. It was an honor to experience their day-to-day lives.…</t>
+          <t>My wife, daughter, and I went on the sunset fishing tour and we had an absolutely wonderful time.    Captain Anthi is a fantastic host and she did such a great job telling us about Santorini and its beaches as well as teaching us about the traditional fishing methods on the island.   They then put on a one of a kind dinner in which we were constantly be served by her and her crew.   If you have time while you are in Santorini I highly recommend you take her tour and enjoy a great experience, a great crew, and a beautiful sunset.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Our Favorite Day in Mykonos</t>
+          <t>An amazing trip with a spectacular crew.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -501,12 +501,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>We had a wonderful day out with Dimitris and Efi. They were so kind and accommodating to us and our 6 month old baby. We were made to feel very welcome and nothing was too much trouble. The lunch of our freshly caught fish catch was absolutely delicious and the views of the…</t>
+          <t>My fiance and i went on this biat trip and i cannot reccommended it highly enough!The staff was so friendly and great hosts...Food and drink provided and it was a great experience all round.TIMEA was amazing and made the boat trip so rememerable we will be back!!Thank you to all the staffAnyone who hasn't tried it has to!!Helen Bennett and keith Ratcliffe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fantastic day out</t>
+          <t>Amazing boat trip highly recommended!!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -517,12 +517,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Efi and Dimitrios are the best hosts you will ever meet. They treat you like family and do everything thing they can to make your fishing experience great. Efi is a great cook.She created a feast which we could not even finish. They obviously love what they do and are happy to…</t>
+          <t>A great and authentic experience ! We had a very nice day. Many thanks to Tina and her father for all they shared with us. You are so kind people. A real human experience Thank you for the excellent lunch !See you next time in Milos.Efharisto poli</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazing day! Best part of our trip!</t>
+          <t>A memorable day</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -533,12 +533,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>From the moment Antoni and his father Kyriakos picked us up my wife and I  realized this was going to be an authentic memorable experience. We have touched many a seas, be it the Mediterranean, Caribbean, Atlantic, Pacific or the Gulf of Mexico, BUT NONE AS MEMORABLE AS THIS!!…</t>
+          <t>Amazing trip.  Giannis  met us with a beaming smile, his boat looking all lovely and clean, tea and coffee, pastries and beautiful fresh fruit and homemade lemonade was set out for our breakfast.  Off to an exceptional start as far as a non fisherwoman is concerned!The trip can be tailored to your requirements - we wanted to catch a big fish so went deep sea fishing, which proved to work very well as we caught a red snapper.Whilst we went for a swim in the beautiful sea and a walk on a deserted beach, the fresh fish we caught were being prepared by Giannis for our lunch.  Absolutely stunning.  I honestly cannot recommend this enough, a truly fabulous experience and not only for people who enjoy fishing.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOOK NO FURTHER! THIS IS A MUST!!</t>
+          <t>Fabulous Fishing Trip</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -549,12 +549,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helpful staff on the boat, teaches non fishing ppl how to use equipment correctly   During trip nice views of Rhodes, provides a non fish option for non fish eaters  good food! </t>
+          <t>I never had though that going for a boat trip would be such amazing experience, great activities such as swimming in crystal clear waters and fishing! The food also fresh and great taste. We strongly recommend  Makarounas fishing trip!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Good fishing trip</t>
+          <t>Amazing time for the whole family</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -565,12 +565,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Our trip with Dimitris was certainly a highlight! We had a very personal contact. It was a great day and we had so much fun! Love the island, love Dimitris!</t>
+          <t>The fishing experience was enriching and one-of-a-kind, and the crew members friendly and thoughtful (not to mention incredible cooks). We watched them fish, name, and clean all kinds of fish (we even caught an octopus!) and observed other kinds of marine life at the same time. The route taken was varied and interesting, with some stunning waters, beaches, and volcanic rocks.This fishing tour is for people who enjoy eating fish, love the ocean water and want a truly Greek experience (and who want to taste the best fish broth they've ever had).If someone has issues with fish bones, we would recommend they call in advance and let them know, so they can serve and prepare additional food, which is what they did for us, as they are very accomodating and kind.Thank you Andreas, Andreas and Marios!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Always on my mind</t>
+          <t>Very friendly people, excellent fresh fish and great experience!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -581,12 +581,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>You have just got to go - no doubts ! A brilliant day out with Dimitrios and Efi , they are such a lovely couple and will go out of their way to ensure you enjoy your day, They set their nets at 3am in the morning and you then join them at 8am when they collect their nets and…</t>
+          <t>Lovely adventure, wonderful people capitan Nikitas and his assistant Marina :)Excellent services and swiming places, the food was delicious.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>An amazing day out</t>
+          <t>Amazing trip</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>We’ve been on plenty of great boat trips in the past but this is so much more. This is authentic fishing and you can either help or sit back and relax.  You get all the usual boat trip stuff ie amazing secluded swimming spots and plenty to drink but the cool bit is catching the…</t>
+          <t>Run by the two nicest people in Greece - Dimitris and Efi. We had the best day!  We started at 8am from Kefalonia Harbour and set out to pull in the fishing nets that had been set the night before. Kids were Uber excited as we pulled in Parrot fish, bass, bream, mullet, Scorpion fish, squid and cuttlefish plus more - and everyone helped. Then went to a deserted beach for swimming and discovered a hidden gem... natural mineral-rich clay which we plastered all over our bodies before swimming back to the boat for a FANTASTIC meal of the fish we’d caught plus fresh vegetables from Efi’s and Dimitrios’ garden all washed down by their excellent home made wine!My 14year old daughter described it as “the best day of my life” Enough said!I really recommend it!John</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fish-tastic!</t>
+          <t>This is a “Must Do” if you are in Kefalonia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Perfect i 'll do it again!l!l   experience the local culture with a local family fishermans!!!!!!!   We doing the fishing after that we take the fishesand we are eating a very good meal !!!!!!</t>
+          <t>This fishing tour was the best part of our honeymoon! Our captain was this amazing woman who had been fishing all her life and she had lived right on the ocean with her family! She knew everything about the area and had so much knowledge and experience! We caught shrimp, eels, octopus, and a number of other fish! They had unlimited local wine and beer and appetizers for us while they cooked up all the fresh fish we had just caught!!! It was incredible! We also got to swim and snorkel in the bay and then watch the sunset on our way back to the port! It was such a great experience! Highly recommend!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fishihg trip experience</t>
+          <t>Best part of our honeymoon!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -629,12 +629,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>If you want to see a fisherman in his local environment - pulling in the nets in and allowing you - if you wish - to help take the fish out - then cooking them along with the most fantastic prawns then this is a must trip.  My wife and I joined another couple who had booked for…</t>
+          <t>Vasilis and Andonis are really great! Having no experience in fishing, they tough us how to fish and of course we all managed to catch something lol or at least to get the feeling of it. We had a great time and of course eating BBQ fish on the boat was such cool experience. Definitely recommend doing this with the duo, good family vibes. Thank you again :-)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What an amazing day !</t>
+          <t>Great experience</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -645,12 +645,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>This fishing trip was the highlight of our holiday. Swimming, beautiful beaches, amazing scenery, fantastic lunch and wonderful hosts. Thank you both!</t>
+          <t>One of the highlights of our holiday, the boat trip was not a tourist trap, it was really interesting, and fun full day, Antonia is a fantastic host, she is fun, and a little naughty , if you want an insight into a traditional fisherman’s day, this is a must.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A wonderful day out.</t>
+          <t>Fabulous!!!!!!!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -661,12 +661,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>This is a boat trip with a difference, a working fishing boat and you watch them haul the nets in...all 2.5km of them! Antonia was the perfect host, answering all our questions, providing us with homemade cake and coffee on arrival, tasty bruschetta later on, then cooking the…</t>
+          <t>Best experience ever, we went for tuna and got a 30 kilos yellow fin, we had dolphin folowing us as an extra and sashimi as dinner️. Dimitri is the best, long life memories, efraistoume!!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fantastic day out!</t>
+          <t>Tuna fishing skiathos 2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -677,12 +677,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>We went last year and came back for 2 more trips this year! Giannis is a brilliant skipper as was Christa hosting. Always fun and interesting. The fishing was superb as was the swimming and snorkelling. You must go if you’re staying in Poros or nearby.</t>
+          <t>We had a wonderful time with Anthi and her Mates.  We could not have asked for a better experience.  The knowledge of this crew is off the charts.  We had a great day at sea catching an octopus, eel, barracuda, shrimp and my very own sardine.  We ate everything we caught thanks to the culinary expertise of the crew.  I would do this all over again in a heartbeat!  Excellent experience.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Legendary trip </t>
+          <t>An Amazing Experience</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -693,12 +693,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I arranged a trip while in uk when we got there was told they was not going out so we rebooked and then was told the day before there was going to be bad weather,let me just say I am a seasoned fisherman from Grimsby,and the weather was perfect hardly any wind i just think they…</t>
+          <t xml:space="preserve">A relaxing day with great people and a real taste of Greece. Fishing on the boat, releasing the fish from the nets and then our captain cooked the catch for us whilst we lay on a secluded beach! Turtles and a bit of snorkelling too.  The food was amazing, fresh &amp; tasty.  Nothing too much trouble.  You have to try this, more personal, very traditional and we learnt something too.  Thank you Maria and Captain - we loved it! </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The trip that never was</t>
+          <t>A taste of Greece</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -709,12 +709,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>We booked this fishing tour to cap off our stay in Santorini - and it was definitely worth it! Anthi and the crew were very lovely, always around to explain about the catch of the day, netting processes etc. They helped us out with fishing rods etc and kept us updated about what…</t>
+          <t xml:space="preserve">We spent the day with Effy, Dimitrios, Mohammed and Eva on the 1st Aug to celebrate my dad's 70th,  superb day had by all,  the team attended to our every need, so friendly, my 10 year old son got involved in assisting with the mornings fish catch,  hauled in red mullet, barracuda,scorpion fish, several squid the list went on and in. Moored up on beautiful remote beach, whilst snorkeling we were cooked a superb meal by the talented Effy,  delicious food all round,  tasted lobster, along with home grown vegetables, wonderful day, our group did not want it to end and Effy and Dimitrios truly had a great day with us also.  Cannot recommend this trip enough, they will do their upmost to accommodate any special requests your group may have I'm sure.  So friendly and a definite trip we will not forget. My dad had a day he said he'll never forget.  Thank-you to all your team and hope to see you again one day! </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Awesome day out at sea</t>
+          <t xml:space="preserve">Brilliant Day Out! </t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Great value for money. We paid 45euros each, which included around 3 hours of fishing, time to swim in the sea and a fish lunch cooked on the BBQ. We had the boat to ourselves (5 family members along with the captain), which was a great experience. The only down side was that…</t>
+          <t>What can I say superb trip great hosts great food and drink nice easy fishing. We were out for nearly 5 hours typical Greek fishing boat stopped 3 places for fishing before dropping anchor for a swim while the fish were cooked on the barbecue on the boat served with Greek salad and wine or beer. Only 4 of us on the boat and still went out and really looked after us. I will definitely go back loved it</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brilliant ! </t>
+          <t>Excellent trip</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -741,12 +741,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amazing experience on a Truly authentic, family run Greek fishing boat.  Fantastic to see all the different varieties of fish being reeled in, including my favourite - Lobster -  Lots and lots of Lobsters - I have never eaten so much Lobster in one meal! Absolutely delicious! …</t>
+          <t>Thank you for a fabulous day on the sea with your family.  We had a great day, were well looked after and enjoyed the delicious food that kept coming all day.  Next time we will catch  that big fish!!!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Best trip ever in all my world travels.</t>
+          <t>Fabulous day on the sea</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -757,12 +757,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Captain Kyriakos is an authentic man and very joyful person and his daughter Tina was very kind.They are both very friendly and full of humor!! We went for fishing and caught many fishes!! Mr Kyriakos and his daughter Tina cooked the fishes and other tradiniotal greek dishes. They also provided delicious breakfast and fruits! The trip and the beaches we visited were amazing (Gerakas, Tsigkardo, Kleftiko) . The fishing trip is for maximum 10 persons therefore i suggest to book 2-3 days before. The most amazing and authentic experience!! Thank you so much Captain and Tina!…</t>
+          <t xml:space="preserve">Went on this fishing trip with my sons - 16, 14 and 8. This was a lovely quiet trip with just a small boat and a small group of people. Run by such friendly people. We had a great time fishing, had the chance to swim between stops and were served a great lunch with fresh fresh sea bream. Highly recommend this trip - you will find their stall on Mandrake Harbour at the end nearest the deer statues. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazing and Authentic Experience </t>
+          <t>Best day of our whole holiday</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -773,12 +773,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Could not fault anything amazing experience and best fish and Greek salad I have ever eaten! Beautiful presentation, very clean. Good fishing experience for all ages. A lot is included for your money! Snorkelling swimming beers wine soft drinks BBQ fishing sun bathing music. All…</t>
+          <t>We have had the most beautiful day on this boat. Especially cool was observing the catch  from a 700 m long net. It seems endless. And a lot of different fish and sea foodWe went to the most outstanding beaches this island had to offer with crystal clear water. So if you do this bring all your snorkeling &amp; swimming gear and of cause your camera...While we were having fun Xristina and Yannis prepared the most delicious meal ever, all from the fresh catch. Now this is an experience you will never forget. My family and me loved it!</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazing very friendly people and value for money!! </t>
+          <t xml:space="preserve">Amazing fishing &amp; boat trip </t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -789,12 +789,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I would reccomend this to anyone even if they have never fished before. The fishing the food the swim in the sea deserve 5 stars the captain is amazing and the food he cooked on board was chicken and all the fish we had caught was 5 stars</t>
+          <t>Absolutely fabulous day out with Michalis Fishing. Antonia greeted us with Greek coffee and the most fabulous cake which her daughter had made. Once the other two families had joined us we set sail for where Captain Michalis had set the nets the previous day. We watched as the nets were reeled in and the catch was removed from the nets, and then we stopped in a lovely bay for a swim. Whilst we relaxed in the water Antonia made the most delicious bruschetta with all fresh ingredients - so tasty.  Then we set sail for an alternative spot for another swim stop whilst lunch was prepared. I can’t describe how fantastic the food was. A good fish restaurant in London would have charged a small fortune for half of what we ate. Absolutely beautiful. The wine and water flowed all day too. After lunch and another few swims and relaxing on the boat in the sun we set off back to the marina. It was the perfect day. The hosts were so friendly and it was really interesting watching the nets being brought up and emptied. And then the catch being turned into our lunch! But even if you don’t have the remotest interest in fishing you will still have a great day out on the water with lovely people. We would thoroughly recommend it. If you’re concerned about Covid-19 this year I can assure you they very much look after you - The boat is bigger than I expected but they don’t take out too many people so social distancing is not a problem. With temperature checks etc on arrival they clearly take every precaution to make sure everything is safe for their guests. We absolutely loved it and will definitely book when we’re next in Kefalonia. Thank you to everyone on board for making our day so special. Kat and Jonathan. X</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fishing trip</t>
+          <t>Fantastic day out with the best food!</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -805,12 +805,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The day trip around Poros island was excellent, Tasos is a great host. He showed us the nicest coasts of Poros and during the trip he cooked for us fresh fish. He also provided soft drinks and wine. I highly recommend this trip with Tasos.</t>
+          <t>If you want to experience some vey special hours with, friendly, heartwarming and nice people then you definitely need to do a trip with the Poseidon.Our day started in the port of Lixouri where the Poseidon and her captain Gerasimos and his companion and crewman panos where awaiting our arrival. After a friendly welcome they served breakfast with "kefalonian" feta cheese, which is one of the most tasty pieces of cheese we have ever tried, fresh tomatoes from the region, a wonderful olive oil, handmade bakery, cookies and even original greek coffee.While we were closing the meal, the captain already set course to the location where he has casted out his fishing-net early in the morning.The net was reeled quickly and a respectable catch was revealed, now it was time to remove the fishes from the net, and if you want to, you can also participate and give them a hand. But this is not an easy thing, which I experienced when I was trying to get our designated food out of the nets hooks. Fortunately and to my advantage the captain Gerasimos was very patient and gave me advice more than once.Now we had some time to enjoy a swim in the ionian sea and a bath in the sun, so the Poseidon casted anchor in a beautiful cove, where we were brought ashore in a small boat by panos. As true professionals and predictive Fishermen they also brought a sun umbrella, an air mattress a pair of flippers and diving goggles to experience the underwater world neat the surface.While we were enjoying our visit to this lonesome beach our two friends on the boat where already preparing lunch, which was served some time later while the Poseidon was lying in calm waters south of the island. They served their traditional fish soup, "Kakavia'" which has an overwhelming taste and freshness, a beautiful fried fish and a tasty glas of white wine. Gerasimos proofed that he was not only an experienced fisherman and mariner but also an impressive cook. During our time on this beautiful boat we had lots of time to talk to Gerasimos and Panos and to share memories, experiences and funny moments. The only bad thing of which we can report is the fact we had to leave the boat in the afternoon and to say good bye!Thank you Gerasimos and Panos, for this incredible day and for giving us an understanding of your life near and on the ionian sea. Im sure we will see us again!</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>best day in Poros</t>
+          <t>Five Points are not even enough for a day to remember all your life!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -821,12 +821,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>By far this was my favorite memory of my visit to  Santorini. Anthi, our Captain, she is simple the best! She is passionate, she is knowledgeable, polite, friendly and treat you like family. Girl Power! Marcos and Muhammed the other members of this amazing crew complete the…</t>
+          <t>Privately hired this boat for an evening fishing trip for myself, my wife &amp; my 8yr old son, from beginning to end it was fantastic! Both owners where so helpful &amp; nothing was too much trouble. We caught plenty of diff variety fish &amp; watching the sunset was to die for! We ended up fishing in completed  darkness so on our return journey just sittin watching the stars &amp; then all the towns lights appearing was magical. Cannot recommend this trip &amp; was a perfect end to our perfect holiday!</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A magnificent tour!</t>
+          <t xml:space="preserve">Superb experience </t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -837,12 +837,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>We booked this trip after the snorkel trip we had booked with another boat got cancelled. We could not have been happier and were very glad it worked out that we got to go with captain and his daughter. Our family wanted to snorkel at kleftiko but most boats couldn’t accommodate…</t>
+          <t>Had a lovely day! Capt and Maria were super hospitable. Was great to see traditional fisherman at work and help with the catch! You'll eat the freshest most delicious fish and prawns in the world! Swimming in the crystal clear waters is a real treat. Short sail around the fish farm was interesting and we were lucky enough to see pod of dolphins! Can highly recommend!</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wonderful Trip!</t>
+          <t>Super day fishing and boating</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Just back from a family day trip out with Efi &amp; Dimitrios and it was brilliant! Three generations of our family on board and we had a great day. Food, boat and hosts all first class and next time we're in Katelios we'll be back. A must do trip!! Thank you Efi &amp; Dimitrios for the…</t>
+          <t xml:space="preserve">We travelled on this trip at 5pm....yesterday.....I think if you are looking for a fishing trip then you need to do the morning trip!! Saying that ...it was great the kids could see the putting out of 6km of nets!! Ready for the mornings trip catch....It seemed a long labourious task that Captain Mihalis and Hassan  did with ease. It made us laugh as there were lots of seaweed relics in the nets. The whole trip was made a lot more bearable by three very lovely ladies that joined us on this trip, and they thankfully  supervised the children when they went for a swim from the boat...unfortunately my husband and I due to arthritis could not manage to get out of the boat to swim, neither can my daughter who has injuries to her foot. The children both age 9 swam beautifully from the boat and back  to the boat.  Finally Antonia cooked the most beautiful meal ever.... the lobster was massive and plentiful salads were gorgeous and I don’t know the name of the bread with tomatoes cucumbers and everything else traditional Greek dish was fabulous.  Antonia even provided the children with spaghetti some plain as we have a very fussy eater! All washed down by what Antonia called Grape juice ! It was lovely we all enjoyed ourselves..... thank you all very very much ...we got back to the port around 10 o’clock and the kids were exhausted and fell asleep,n the way back in the car </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Perfect Day!</t>
+          <t>Well this was different.,,</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -869,12 +869,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>We helped get in the 2 km nets and sort out the fish, including a lobster. We got to have 3 beautiful swims on deserted beaches including a brilliant beach with clay that made our skin feel re vitalised. Effi cooked a fantastic meal with the fish caught and my husband…</t>
+          <t>We had fishing trip yesterday. All our expectations were come true. Captain of the boat was very amicable and friendly. During the trip we caught quite a few fishes and got a lot of enjoy. Highly recommended for any who'd like enjoy holidays. Thanks a lot for great amusement.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What an amazing experience. We were welcomed by Effi, DImitri and Mohammad onto the fishing boat and the day began</t>
+          <t>Best fishing trip!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>We have just had one of the most memorable days of our lives. All thanks to Dimitrios and Efthimia. What a day! And where to start?!? First of all we must say if you are visiting the island this is a MUST do trip. Even if you do one this has to be it. We saw turtles, seals and…</t>
+          <t>Dimitris and Effi are part of the new fishing tourism in Greece - a most interesting way of getting out there to see what life for fishermen entails. Really educational and I'm bringing my children next year - they will love seeing the colourful and varied fish - and lobster- a lot of which is later cooked by the hosts and eaten on the boat. Just come with swimming regalia - and snorkel - jump off the back of the boat into the cerulean waters and you can swim whilst lunch is prepped. Best fish I've tasted and you struggle to find anything fresher. Katelios harbour is easy to find - there's a toilet on the boat - and everything very clean. Message Effi and she promptly replies. The return journey was really exhilarating when Dmitris turns up the engines. I felt a bit sick and Effi had far superior pills on offer than the ones I had at home. Thanks guys !!!! Yamas xxxx</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Most amazing day!</t>
+          <t>Fantastic trip with lovely hosts</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -901,12 +901,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>This trip was absolutely incredible. The hosts were so friendly and kind, we had such a fun day and enjoyed every moment. Efi’s cooking is so so tasty, and her homemade wine is even better! We caught and ate an wonderful amount of fish, the swimming in the sea was just paradise…</t>
+          <t>It was a amazing  trip with an astonishing view. The captain was friendly and willing to answer all of my questions. In all means it was perfect!</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A FANTASTIC TRIP!</t>
+          <t>A interesting boat trip.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -917,12 +917,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A great fantastic day fishing, lovely people, fabulous food, great no matter what age this family run business are kind friendly and have a great sense of humour, nothing is to much trouble, it is also very educational.Have already booked for a second trip. A big thank you to…</t>
+          <t>We loved our day with Tasos. He collected us from the jetty below New Aegli Hotel and brought some wonderful local food for us to eat on the trip: Baklava pastries, biscuits, fresh bread and cheese from Galatas, fresh fruit and salad vegetables, soft drinks, lots of ice cold water and lovely local wines. There was more than we could eat. Tasos took us on a journey around Poros island. He was really considerate and kind host. We stopped in several places to swim, secluded bays with crystal clear, turquoise blue water.  The children had great fun jumping off the boat and swimming in these quiet coves, which you couldn't reach by land. Tasos was very aware of safety, we felt totally confident in him and he was very knowledgeable about the places he took us to and what we could see in our journey. He is such a lovely person to spend time with and made us feel really welcome on his boat.This was such an amazing experience for all of us. We were two families with several teenage children and we all had the best day of our holidays. I have been visiting Poros for over 40 years, but this is the first time I have been around the whole coastline of Poros and the first time I have visited the beautiful Daskalio island near Russian Bay. I highly recommend Poros Fishing Tours to take you on a breathtaking tour of Poros' coastline with exquisite places to swim. But it was Tasos himself that made the trip extra special. Thank you for a great day and wonderful memories!</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">An amazing day out well worthwhile </t>
+          <t>Amazing day with Tasos on a boat trip around Poros.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -933,12 +933,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>After spending lots of time emailing with Antonia we finally got the booking we wanted on our last day. I had wanted to go on this trip well before our holiday but it took a while to convince everyone. We all had a great time starting with the orange cake through to the very…</t>
+          <t>Great experience and good value - lesson on how to fish, snorkelling, and a really good meal consisting of fish caught that day (even if you caught none you still got an equal portion). Thanks for a great day!</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Surely the best way to spend your final day on Kefalonia</t>
+          <t>Best day of our hols</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -949,12 +949,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I had the pleasure of fishing with my family and Dimitri last summer and the one thing I can say is , incredible!  We never thought that a few hours on a fishing boat could be so much fun and relaxing at the same time.  My children keep asking when we will return for another…</t>
+          <t>When not taking you on a trip around the island with his daughter Ntina, Kyriakos is a fisherman. This trip is the perfect mix between a touristic hop between the unaccessible beaches of Mílos, the experiencing or Paragadi fishing, and the tasting of traditional fish soup (fresher fish, you die! You’ve just taken it out of the water!)Avoid the big boats. You’ll just spend the day with 30 to 50 other tourists. Let Kyriakos and Ntina share a bit of their daily lives.These guys are a bit hard to find, so look for them in the port of Adamantas! The boat is called Anna Maria (Kyriako’s granddaughter).</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amazing Experience!</t>
+          <t>Ever felt at home on a boat?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -965,12 +965,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I booked this tour on July 10th with a bunch of people who were not terribly keen on going fishing, but wanted to go on a boat for the day. I can tell you that by the time we were done, everyone was ecstatic that they booked. You do not need to fish if you do not want to, rather…</t>
+          <t>One of the highlights of our trip.  Where else can you go fishing and the captain prepares your catch for your while you swim?  The lunch setup is super cute where they have your cooked fish, salad, and a side of bread for you all prepared for you at the "table" so when you hop back on the boat after your swim, all you do is eat.  With the food scraps you throw them into the water and a bunch of fish will fight over it.  It was fun watching that.  The fishing we caught that day were all very tiny though, so don't expect any big catch?  I'd def. recommend this fun half day trip with Makarounas if you are sick of lounging at the beach.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Would not change a thing! Great even if you do not fish.</t>
+          <t>Free drinks and fresh lunch prepared for you</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -981,12 +981,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>We now live in Zakynthos and this trip was recommended to us by friends they raved about it so much we booked and took along our daughter and her partner, leaving from the Port of Zakynthos we headed out to sea, George (Captain) explained what we would do and what we would see…</t>
+          <t>Well, what can I say, came with 13 mates, booked with George a while back, and we had a brilliant day!!  Great fun, swimming, great hosts, and the lunch/ wine etc was lovely! Caught some fish too, and had a swim with a turtle! Great thanks to George, his mum in law, and other crew, a great day!</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>If you do one trip in Zante - do this one!</t>
+          <t>Sniffer’s 50th!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -997,12 +997,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazing Day. Very relaxing. Great to see the fish being caught fresh to then eat. Nothing to much trouble. Great scenery with the chance have a lovely swim and even a mud treatment or natural thrown in. Lunch and wine superd. Thank you for a lovely day.Highly recommended. </t>
+          <t>Captain Kyriakos is an authentic man and very joyful person and his daughter Tina was very kind.They are both very friendly and full of humor!! We went for fishing and caught many fishes!! Mr Kyriakos and his daughter Tina cooked the fishes and other tradiniotal greek dishes. They also provided delicious breakfast and fruits! The trip and the beaches we visited were amazing (Gerakas, Tsigkardo, Kleftiko) . The fishing trip is for maximum 10 persons therefore i suggest to book 2-3 days before. The most amazing and authentic experience!! Thank you so much Captain and Tina!</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amazing Day</t>
+          <t xml:space="preserve">Amazing and Authentic Experience </t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great time had with Efi and crew, so much more than a normal holiday boat trip. We actually ate what we caught!  Swimming and secluded beach visits were an added bonus.  </t>
+          <t>Vassilis and Antonis were absolutely great and gave us an amazing experience. We did not have any experience fishing but still managed to catch a couple small ones due to the very friendly crash course and expertise of the crew! Plenty of time for fishing, and we even made a second stop. To top it up some snorkeling while Vassilis expertly prepares the days catch and some fresh salad and a nice trip back to the harbor!</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Best boat trip !</t>
+          <t>Perfect Fishing Trip</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Captain Nick and his "mate" were very obliging, knowlegeble and were very pleasant to be with on the boat. From the moment we met them, to the time we left we were at ease and informed of everything. I fished, did nt catch anything to mention!! But then it was in the middle of the day and was nt really expecting to. We snorkelled, went to the warm springs and ate on the boat. Nick had caught a fish first thing in the morning which was lovely - as were the salads and accompaniments. To see the sunset from the boat is different and truly lovely.   The trip was not cheap, but I would suggest anyone took the trip.…</t>
+          <t>Antonia and her husband are the most wonderful, heart warming and lovely people you can spend a day on the boat with. We were shown how the fisherman is working daily - collecting the nets , checking the fish and later on throwing it back again in the sea to collect it the next day again!!!! And the best of all , you get to eat the most freshest and delicious fish of your life( for me especially , as I life in a big city far away from the sea).  Antonia is a fantastic cook , so she made sure we were all happy the whole day provided with lots of deliciousness!!! And the whole group was so nice to spend with, getting to know so many different life stories, having a break from your rational brain, relaxing your mind and feeding the soul!!! Thank you Antonia and Michaelis.... you Are the best!!!!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fishing and Sunset</t>
+          <t>Beautiful sail away :)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1045,12 +1045,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>We have been in Kefalonia for about 10 days now (5 more to go...). During that time my wife and I have packed in a multitude of activities in order to entertain our kids (13 and 1) but also to scratch our own cultural interests. The Poseidon Fishing Adventure (adventure is the…</t>
+          <t xml:space="preserve">A fabulous day out fishing with Dimitris on his own boat. We caught 98 fish between 7 people which was excellent and was shared out at the end of the trip. Needless to say we had to give it to one of the tavernas in return for a very cheap dinner. This is a great day out for anybody, couples and families alike.Stopping off for a swim and also lunch. I would love to do it again on another visit to Skiathos </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Truly memories made for life...</t>
+          <t xml:space="preserve">The Best day out </t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1061,12 +1061,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alyki is a wonderful place in Paros for someone to visit! The ride by the boat of captain-Giorgis is a great and unique experience for me! Captain is very friendly and polite and he can take you to many nice sightseeings! If you go to Paros island don't miss this ride by boat !</t>
+          <t xml:space="preserve">My second time, my partner's first. Cannot recommend this experience enough. Remember it's not your ordinary excursion it's a a real fishing boat and that is what you are there to experience, which is what makes it so special. We both agree that we ate the best meal of our holiday on this boat.... Which considering the size of the kitchen is absolutely amazing. Antonia &amp; Mikalis thank so much </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ride by boat with captain-Giorgis is a unique experience !</t>
+          <t>Wonderful Day</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1077,12 +1077,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>What an amazing experience to see how fish gets picked up early morning, and then to have a wonderful meal with the freshest of ingredients.  I cannot say enough about the kindness of the staff especially Antonia, so welcoming and friendly, always making sure the group was…</t>
+          <t>If you are looking for a boat trip with a difference look no further. This is an amazing experience for all ages. It’s a great experience to learn how to haul fishing nets in and about the array of fish caught. The day started with the most amazing cookies and coffee and a very friendly welcome.  Then it’s time to haul the nets, once all of the nets are in you stop of for a swim stop. while the fish are being cooked for lunch, which was amazing so tasty and the home brewed wine went down a treat.  Information about the different spots/places on the way which is a really nice touch. I really can’t rate this trip highly enough and if your wanting something different to the normal boat trips this is definitely for you.We received a lovely welcome and they couldn’t do enough for you. Will definitely be booking the trip again when we are back to this beautifulIsland.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fun, perfect, and delicious!</t>
+          <t>Amazing experience A*</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>We spent the day with Antonia and her family on their traditional fishing boat.   After being served delicious home made cake and coffee, we left the harbour just after 8am.  We went out to sea for about half an hour then watched as the 2km long nets were pulled up to expose…</t>
+          <t xml:space="preserve">Hello from the Norwegians.My fiancé Sam and I booked this boat trip as our wedding present to one of our favourite friends :) We wanted to book a whole day trip with authentic Greeks and authentic Greek foods and views. And that is exactly what we got!Antonia, Michalis the boat captain were absolutely amazing hosts and company throughout the whole trip! The trip started with the crew picking up the nets of fish. After that the boat travelled quite a distance to get to a quiet location near a beautiful beach with cliffs and a gorgeous view. We got to swim for a long time around the beach and boat, and the water was so warm and delightful. Then we were served beautiful starters (Greek style bruschetta), and after a while we were served a full main meal consisting of lobster, fish, spaghetti, Greek salad, Greek potato mash and beautiful local white wine. Throughout the whole trip the crew made sure we were informed of all the sights and fun local facts about the island. The crew were really good with mingling with us, but also give us some space to eat and space when needed.The married couple could not have been happier and more pleased with the gift, and kept saying throughout the entire trip how amazing the trip was!We could not have been more thankful, amazed and grateful for the trip, and want to thank the crew once again!We definitely recommend this trip highly! One of the most amazing things to do when visiting Kefalonia All the best and greetings from Norway,Karoline, Sam, Marita and Gunnar </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What an amazing day!</t>
+          <t>An authentic and amazing Greek boat trip 🇬🇷</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1109,12 +1109,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Great trip! A bit of a hidden gem as they are a relatively new company operating. Geronimus and Babis are excellent hosts and made us all feel very welcome. It was fascinating watching them pull in their nets from the night before to see what they had caught, and the food they…</t>
+          <t xml:space="preserve">Wow what can i say about this trip.just an amazing  experience  fishing the old traditional  way.you leave zante harbour  7.30 am traveling  out in the boat for a  round 90 min then the anchor  goes in and you then start putting  the nets  in this takes around 90 min .you then go too a lovely  quiet  beach for around 2 hr too snorkel  or just have a few beers in the bar there.them you head back too the nets and bring them in which takes about 1hr .watching  the nets coming in with fish we even  had a octopus. Then it's food time all made with the fresh catch of the day.a few beers and wine too wash it down.then head back too zante  harbour  arriving around 4.00 pm .was a fantastic experience </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fantastic day out</t>
+          <t>Zante  fishing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Went on this trip in May and we had a fantastic time , you are made to feel like family , the food is amazing , we are booking again for our trip in 2020 ...we loved it xx</t>
+          <t>We have had a perfect day with cpt. Dimitris. He offered us good price &amp; delivered good service. We visited Lalaria and Castro beach had a lunch there in taverna and on the way back stopped for a quick fisiing. Relaxed atmosphere, music &amp; beer - we will do this again!</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Excellent a must do trip</t>
+          <t>What a day on boat !</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1141,12 +1141,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2nd review as 1st one lost! My husband and 2 friends had the pleasure of going on this trip on Mon 3rd Sept. Antonia and Michalis were fabulous hosts from the moment we stepped on board and I hold a lot of memories from this day. We had a lot of laughs with the other guests and…</t>
+          <t>Can highly recommend our boat trip around Skiathos and Skopelos. Our skipper/guide, Dim, went above and beyond to make sure we had a great day. We stopped multiple times - all stunning locations - and even saw dolphins in the late afternoon. Delicious food with croissants, seafood and fruit, plus ice-cold waters and wine. The boat was simple but a good size for seven of us.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>a truly unforgettable day</t>
+          <t>Excellent boat trip</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1157,12 +1157,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>We had a fabulous day with Antonia and Michalis on Monday 30 September 2019.    We were picked up by Antonia and taken to the boat early in the morning. When everyone had arrived, there were 11 of us, we were served coffee and homemade cake which was lovely.  We then set sail…</t>
+          <t>We had the most amazing day with Dimitris. 8 of us ranging from 17-50+++We swam, snorkeled, sunbathed and ate the most wonderful food prepared by Dimitris.It was a full day from 10.30-7.30pm and would recommend the trip to anyone!Thank you Dimitris</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FISHING TRIP WITH ANTONIA AND MICHALIS ON 30 SEPTEMBER 2019</t>
+          <t>Best day of our holiday!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1173,12 +1173,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>It was an amazing tour!  Mr Andreas is a great captain! We feel like we are still there, swimming in these crystal waters. The best moment was lunch!!! Captain Andreas was the chief fisherman and we tried to help him to catch fish and then we had a perfect meal with absolutely…</t>
+          <t>Just returned from the most magical day at sea with Captain Nikos, his wonderful wife Frossa and the legend who catches the fish, Simos.I never write reviews, but felt compelled to share the pure joy we all experienced today. This is a traditional fishing boat, so you get to see the fish being caught in the nets, but our children (12 and 9) also both caught fish using rods too. Very excited!We ate wonderful freshly cooked food, washed down with beer and wine (All drinks included). To top it all, we swam in the most stunning turquoise water all day. A perfect, relaxed and joyous experience.A truly memorable day...I can not recommend it highly enough.Huge thanks from us all,Jane Tom Henry and Sophie Lamb xxxSurrey, England</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Astonishing trip</t>
+          <t>Best day EVER!</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1189,12 +1189,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Probably the best organised trip I have ever done on any holiday! I felt like they shared a secret bit of Kefalonia with us. The hosting was great, the food superb and to see how proper fisherman fish was fantastic. All in all a magical day and we will be recommending it to…</t>
+          <t>Travelling as a family, generally its difficult to find activities a couple and Girls would be happy to do. despite early reservations (would girls be ok with the fishing) we embarked on our trip and had a most wonderful experience.Captain Vassilli and his co pilot Mark were excellent and basically taught us all to fish, They showed great patience and skill with our 10 year old who initially found the sport alien, however she went on to catch 5 good fish...  and thoroughly enjoyed her day. to a man we all agreed this was a holiday highlight. Food was fabulous and included some of our catch... well done Makarounas Fishing Trip. Highly recommended.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>If you do nothing else in Kefalonia go on this trip!</t>
+          <t>The best family fun we had in Rhodes..........</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1205,12 +1205,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Really layed back and family run boat.  You can fish,swim,chill at your own pace. No rush and you have meal on boat! If I come back here I will be looking them up and try to bring friends.</t>
+          <t>It was a great experience and professional team. I strongly recommend it to all my friends.Thanks a lot!</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Great experience</t>
+          <t>Amazing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>We, wife, daughter and I spent a great day out fishing today. On the way to the fishing spots we were given great information on the history of Santorini and then we saw the creels being brought in with shrimp and octopus. Nets were brought in with lots of fish all named by…</t>
+          <t>Me and my family spent a great I have visited Acropolis with 3 other people yesterday. While we were impressed with the long lansting ruins and their majestic posture, we were highly disappointed in the organisation and personnel's attitude.My boyfriend had a mug from his workplace with him, in an attempt to make a joke with his co-workers, he put the mug on a rock (no signs indicating that you we were not allowed to take a picture with the mobile phone or that we should not touch the object) and took a picture of it. We were whistled and shout at and one of the "guards" came to us afterwards demeaning that he erases the photo. Later on, the same person told us that we were not supposed to bring water from outside.We were reported via walkie talkie and followed around the site by other "guards". Other information which may come in handy: the water on site is €4.5 a 500ml bottle and the ticket for the Acropolis and Dyonisios  experience we had on the island.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Great day out fishing</t>
+          <t xml:space="preserve">Amazing day </t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>In our opinion this trip out is a must do. From start to finish were made to feel welcome, and within 30 minutes of boarding the boat, we felt that we were with friends that we had known all along. Antonia and Michalis, and their lovely daughter Nikki who also joined us, were…</t>
+          <t>My wife and I decided to go on an afternoon fishing trip with Makaroynas Vassilis. Brilliant day out. Antwan and Antonis made every effort possible including a great dinner of fresh fish, salad, bread and dessert. Highly recommend it. H and L</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>OMG ! What a great day out.</t>
+          <t>Excellent day out</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1253,12 +1253,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Having spent most of our time exploring the island via ATV (quad) and scooter we decided to set sail with Captain Andreas and Pedros (who were great!).   The boat is small and there were only 7 of us on board (inc. crew) but it made the trip far more interesting than if you were…</t>
+          <t>We did this cruise a couple of days ago. All I can say is amazing! You start the cruise by collecting the fish net (actually cpt Andreas does it). Afterwards we went to the beautiful and almost “private” beaches of Poliaigos island which are really the highlight of the area in my opinion. We stopped at an amazing beach ,all by ourselves , to swim and afterwards have our lunch: the fresh fish we just cought ( “kakavia” a tradiftional Greek soup made of fish) and tasty home made “ladenia” - a traditional kind of pizza in Cyclades-by the captains mom. This was accompanied by salad made of tomatoes cucumbers and green peppers grown by the captains dad in milos! A really special and original meal! We stopped at several beaches of Poliaigos which are extremely beautiful and have the clearest water, astonishing landscape and all kinds of colors!At our final stop at pano Mersini beach we had home grown melon after our swim so that we would have the strength to “help” the captain throw his fishing net again in the sea :-) .Andreas the captain and his helper Andreas , made this experience so special and unique! One of the must do of milos and Kimolos! I highly recommend this!</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Great way to explore Milos</t>
+          <t>A unique experience! MUST do it!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1269,12 +1269,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Just go...  Captain Anthi &amp; Crew are super-nice.  Lots of fresh fish to catch &amp; EAT. (From cages (for shrimps &amp; octopus) &amp; 1km-long net PLUS you can fish yourself.)  Fresh shrimps (caught in hand-made cages by Anthi's father)... super-big octopus.  Time well spent. ***  PS:…</t>
+          <t>Had a lovely day yesterday with Efi and Dimitrios we where due to do the trip early in the week but due to the bad weather Efi rearranged it for us, from start to finish this trip was fun and full of information about Kefalonia and the fish we caught and Efi cooked. There was 8 of us on the trip which was really nice as so many boat trips are crammed! But on this trip we all got time to get to know one another. We managed to catch lots of fish and cuttlefish Efi and Dimitrios explained what we where catching which was really interesting, we stopped in two beautiful places for a lovely swim and the lunch they provided was amazing. But most of all the day was made by Efi and Dimitrios hospitality they are really good hosts and made sure we where all catered for and that we enjoyed our trip. Highly recommend and a must do if coming to Kefalonia.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FANTASTIC! *****</t>
+          <t>Brilliant day made by Efi and Dimitrios</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1285,12 +1285,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amazing and authentic fishing experience for me and my wife. The crew was very friendly and cooked an excellent lunch.  Anthi (the captain) was very kind and knowledgeable</t>
+          <t>amazing people!we catches a lot of fishes!we drunk greek tsipouro and we grilled the fishes we catched</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Highlight of the trip</t>
+          <t>fishing</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>My husband and I always said we'd never go back to the same place twice, but we're going to break our own rule and go back again, to experience this trip again. A fabulous day with excellent hosts, fishing, swimming, eating the catch, washed down with local wine - my idea of…</t>
+          <t xml:space="preserve">Today will  be about Kefalonia, Efthimia and Dimitrios. Kefalonia is my favourite island from the 7 Greek island I’ve seen so far. And Efthimia and Dimitrios will be, from now on, one more reason for that. They are my favourite tour hosts, ever. The food Efthimia cooks ( fresh, catch of the day fish, sea food and vegetables) is delicious; Dimitrios is funny, communicative and helpful. Their small boat is spotless, and comfortable. For  those who, like me,  had no idea about net fishing, it is very instructive, too. Don’t miss this experience, if you are in Kefalonia. It’s a must.And now about Kefalonia : as in all the Ionian Sea islands, water is unbelievable clear, and in 50 shades of ...blue. It changes colors,depending on the moment of the day. At this time of the year the water is rather cold, but refreshing, all in all. People are friendly and helpful and speak English quite well. There are lots of guests houses, b&amp;b, hotels. The entire island is full of small, cosy villages, each and every one of it with its special feature. As the island is practically a mountain in the middle of the sea you’ll definitely need a car, as everywhere you go, you’ll have to go up and down on windy roads. The views are amazing, breathtaking, wherever you look. And it’s not crowded if you chose to come beginning of June or late August, beginning of September.I don’t know exactly about July and August but most certainly it might be too hot. Depending on your interests, the hosts of your guests house will advise you. Argostoli the capital, is a nice,  clean and neat city, with something for everybody( fancy restaurants and hotels, dancing clubs, local designers shops, playgrounds for children ) but  if you prefer just to relax and enjoy a good bath in Cristal clear waters and white, yellow, black sand, look for lodging in the villages scattered all over the moutains. You won’t regret it. </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Excellent day out, authentic and friendly</t>
+          <t xml:space="preserve">This is a must </t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1317,12 +1317,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>I had never fished before, but my boyfriend loves it so we thought we would give it a go. I absolutely loved it. Vasilli was so helpful, patient haha and friendly. He made sure we had drinks, knew what we were doing and that we had fun. We caught 14 fish between us, swam in the…</t>
+          <t xml:space="preserve">This is a MUST do when visiting Samos! Giannis and Nancy along with their daughter Areti provide an experience found nowhere else in Samos! Their expertise in my mind is not the fishing but the hosting and cooking. The fishing was phenomenal but had we caught no fish at all would not have mattered. This beautiful family is what made our day. They are genuinely good people and Nancy is a PHENOMENAL cook! The greek feast she prepared for us at sea was amazing! The seafood pasta was to die for! The day was split up between fishing,swimming, drinking greek beer and feasting on greek food and wine....lots of it! We stopped at a beautiful beach that is frequented by locals and only reachable by boat or 850m hike down a mountainside. One word breathtaking. My family is from Samos and this felt like a family get together rather than an excursion. I can't thank them enough for making our family feel like part of theirs! Efharisto Poli, méchri na synantithoúme xaná! </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Best Trip</t>
+          <t xml:space="preserve">GREEK HOSPITALITY AT ITS FINEST! </t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The cruise is an all day one starting from Paliochori Beach in the morning. We had a stop for a bath at least of 30 minutes in Tsigrado Beach, Gerontas Beach, Kleftiko Beach and Gerakas Beach. He made us to visit some caves along the path too. The captain sailed along the south coast trying to make us to see all wonderful water along the coast: he is very expert because he is a fisherman in Milos during the wintertime. We had a very long stop in Kleftiko Beach where he offered a delicious lunch composed of salads and pasta with fish. It's offering you all drinks for free anytime you would like, not only during the lunch: juices, beer, coke, water and so on.  The captain is VERY kind and funny, the boat is small so there are few tourists on board so the enviroment is very familiar. You can freely ask everything you need at the captain and he'll make the best to satisfy! The money is VERY well spent! I advice to sail with him because you will not be able to forget easily this "familiar-cruise"!…</t>
+          <t>Dimitris is a very nice host, he makes sure everything is fine, even to prevent from being see sick, he s got a complete pharmacy on board! The breakfast, the pastas he cooked, the salad, the fruit salad were all very fresh, tasty and homemade. He s got a full range of fishing rods to try to catch different kinds of fish. I highly recommand his fishing trips.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wonderful familiar Cruise in the south coast of Milos</t>
+          <t>Perfect!</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Absolutely amazing experience, my partner and I had very active lines. The Greek salad with our bbq fish made the experience complete after a swim in the very clear sea. The on board fishermen were a joy to spend your time with and always ready to assist and advise. I would…</t>
+          <t>what a fantastic trip we had today thank you Antonia, Michelis and crew the whole trip from beginning to end was very interesting and informative from being told how the nets would be dropped to the length and lifespan of the lobsters the different species of fish in the area Antonia has so much knowledge and her English language is amazing the meal was amazing but felt a bit sad to be eating Larry ( the lobster) I must say he tested delicious as did the test of the meal and the homemade wine was awesome as I don't usually drink white wine Antonia got some Rose especially for me which was so thoughtful and didn't expect all in all we  thoroughly enjoyed our trip thank you Antonia, Michalis and crew  xx</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Best Fishing trip that I have been on.</t>
+          <t>Authentic Greek Fishing Boat Trip</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1365,12 +1365,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>It is my first time ocean fishing.Giorgos is the best captain! He is knowledgable, and likes to share with people.  Such a good experience. It's not only about fishing. The food we got is fabulous as well!!</t>
+          <t xml:space="preserve">Anthony and his father are the most friendly people ever. We did two fantastic trips with them. We visited the volcano and did a sunset cruise. We were swimming in a beautiful bay and had an amazing dinner from fish, which they caught fresh before. We also saw the sunset accompanied by the great music performed by father and son.We had a really unforgettable experience. </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fantastic day with Giorgos</t>
+          <t xml:space="preserve">Sunset Cruise </t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1381,12 +1381,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dear Nancy and Giannis,  Thank you for the wonderful day. We enjoyed everything... The fishing was a great experience, the lunch was outstanding. Your kindness and enthousiasm is appreciated in many ways. We will meet again. To others: I would recommend this trip to everyone...</t>
+          <t>We had a fantastic day out today. The captain was such a great host and chef, he was very good fun too. He taught my girlfriend how to fish for the first time and we both caught a lot of fish. We stopped for a swim and snorkel whilst he prepared the food which was amazing. It was worth the price for the food alone and we both enjoyed the beer.We would both highly recommend it to anyone as the captain was so accommodating. My partner does not like eating fish or fishing but still really enjoyed the trip and food and said it was the highlight of our holiday so far. We will definitely be back.Thank youPaul and Courtnay</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>Brilliant day out. We highly recommend it</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Since we went in the end of the season, we had the opportunity to go on the fishing trip alone as a couple.  First, the captain navigated us to some places to take nice pictures of the old town of Rhodos. After the photo's we went further on the sea to fish. I'd never fished…</t>
+          <t xml:space="preserve">We had a fantastic day swimming - fishing - swimming - eating and more fishing , unfortunately no fish were caught today although a very large one snap the hook - we can not fault the skipper and his daughter and granddaughter - fun family day out with lovely fish dinner in kleftiko ! Don’t jump on a sailing boat with 16 people go fishing with 4 !!! </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great fishing trip! </t>
+          <t xml:space="preserve">Lovely day - lovely people </t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1413,12 +1413,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Great fishing, nice food and beautiful bay to swim. Small fish were annoying to catch. Got great beer to compensate that. 6/5</t>
+          <t>An amazing day out and what Poros has been missing. Giannis is a brilliant skipper, host, fishing genius! 6 of us went, 3 adults and 3 children and everyone loved it!!! Highly recommend this for all! See you again next year</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fishing Trip</t>
+          <t>Brilliant fishing trip and snorkelling</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
